--- a/Database/Cornestean/Europa_cazuri_confirmate.xlsx
+++ b/Database/Cornestean/Europa_cazuri_confirmate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mihai\Desktop\Repository Practica\Practica_covid19_UTCN\Database\Cornestean\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBBE3FDA-47D2-418C-9A81-CBA2B480D7F1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06D25DD1-C6ED-4E18-8FDD-7DF7B2558CFF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -632,14 +632,16 @@
   <dimension ref="A1:AV226"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D214" sqref="D214"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="23.7109375" customWidth="1"/>
     <col min="2" max="2" width="17.140625" customWidth="1"/>
-    <col min="3" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" customWidth="1"/>
+    <col min="5" max="17" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="12.85546875" customWidth="1"/>
     <col min="19" max="25" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="22" customWidth="1"/>
